--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_1_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_1_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3055295.49857476</v>
+        <v>3048122.643936477</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8784390.628638947</v>
+        <v>8784390.628638946</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.2420339516669</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,19 +670,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>263.2420339516669</v>
+        <v>193.065488630258</v>
       </c>
       <c r="G2" t="n">
-        <v>263.2420339516669</v>
+        <v>15.21022140383137</v>
       </c>
       <c r="H2" t="n">
-        <v>20.85462475186311</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>206.909162189371</v>
       </c>
       <c r="J2" t="n">
-        <v>4.097100052852073</v>
+        <v>4.097100052852173</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>144.0576027644702</v>
       </c>
       <c r="S2" t="n">
         <v>206.9118586999128</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -737,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>155.5874971019157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>7.684604967059311</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>97.08446202703753</v>
+        <v>97.08446202703757</v>
       </c>
       <c r="S3" t="n">
         <v>170.7637213332854</v>
       </c>
       <c r="T3" t="n">
-        <v>199.9652070090748</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9381254702172</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>159.8350691069748</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>159.8350691069752</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,16 +904,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>345.878373679648</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>387.394840144156</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>387.394840144156</v>
+        <v>14.77699516265575</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>334.0905432484386</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>100.9339836126165</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -980,16 +980,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>43.53688794296699</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>120.7638961374909</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.0622202054666</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>82.69274760078353</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>166.4582034896018</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9228757021759</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>10.28312309581307</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>156.7170857423826</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1135,22 +1135,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>335.04865817159</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1189,16 +1189,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>205.3588765641666</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>14.46389722690856</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1335,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.8395066620458</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.078595249799</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>24.85318139851644</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>24.32276211751084</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1770,19 +1770,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>118.4898845065125</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>182.8171940869578</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274103</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>33.35146980185879</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G20" t="n">
         <v>411.9645167896915</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784683</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>111.7493470590111</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>139.1537278750038</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>124.0740322943779</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274131</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2952,19 +2952,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0.5329038551739904</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>48.31826162700912</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3015,10 +3015,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3046,7 +3046,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I32" t="n">
         <v>81.77913505274074</v>
@@ -3085,7 +3085,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,13 +3198,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>20.9138883924431</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3328,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>26.48394936267323</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498008</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3568,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784685</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>76.27978370493953</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>169.7438101404424</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3754,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896905</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>123.1663911814755</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>185.8423677343264</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3994,10 +3994,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>305.287249111317</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T46" t="n">
-        <v>197.6165621654129</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>578.0652139363849</v>
+        <v>444.5765064295804</v>
       </c>
       <c r="C2" t="n">
-        <v>578.0652139363849</v>
+        <v>444.5765064295804</v>
       </c>
       <c r="D2" t="n">
-        <v>578.0652139363849</v>
+        <v>444.5765064295804</v>
       </c>
       <c r="E2" t="n">
-        <v>578.0652139363849</v>
+        <v>444.5765064295804</v>
       </c>
       <c r="F2" t="n">
-        <v>312.1641695407617</v>
+        <v>249.5608613485117</v>
       </c>
       <c r="G2" t="n">
-        <v>46.26312514513859</v>
+        <v>234.1970013446416</v>
       </c>
       <c r="H2" t="n">
-        <v>25.19784761800413</v>
+        <v>234.1970013446416</v>
       </c>
       <c r="I2" t="n">
-        <v>25.19784761800413</v>
+        <v>25.19784761800421</v>
       </c>
       <c r="J2" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K2" t="n">
         <v>135.7250809573683</v>
       </c>
       <c r="L2" t="n">
-        <v>330.2546714142364</v>
+        <v>330.2546714142361</v>
       </c>
       <c r="M2" t="n">
-        <v>563.3128681098028</v>
+        <v>563.3128681098023</v>
       </c>
       <c r="N2" t="n">
-        <v>785.5101925369336</v>
+        <v>785.5101925369328</v>
       </c>
       <c r="O2" t="n">
-        <v>950.1371873885148</v>
+        <v>950.1371873885138</v>
       </c>
       <c r="P2" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="Q2" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R2" t="n">
-        <v>1052.968135806668</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="S2" t="n">
-        <v>843.9662583320081</v>
+        <v>698.4535282668857</v>
       </c>
       <c r="T2" t="n">
-        <v>843.9662583320081</v>
+        <v>698.4535282668857</v>
       </c>
       <c r="U2" t="n">
-        <v>843.9662583320081</v>
+        <v>444.5765064295804</v>
       </c>
       <c r="V2" t="n">
-        <v>843.9662583320081</v>
+        <v>444.5765064295804</v>
       </c>
       <c r="W2" t="n">
-        <v>843.9662583320081</v>
+        <v>444.5765064295804</v>
       </c>
       <c r="X2" t="n">
-        <v>843.9662583320081</v>
+        <v>444.5765064295804</v>
       </c>
       <c r="Y2" t="n">
-        <v>843.9662583320081</v>
+        <v>444.5765064295804</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>352.2090288979655</v>
+        <v>178.2184506978664</v>
       </c>
       <c r="C3" t="n">
-        <v>177.7559996168385</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="D3" t="n">
-        <v>28.8215899555872</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="E3" t="n">
-        <v>28.8215899555872</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F3" t="n">
-        <v>28.8215899555872</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G3" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H3" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I3" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J3" t="n">
-        <v>24.95018035683216</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K3" t="n">
-        <v>158.2210505399124</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="L3" t="n">
-        <v>398.824578434775</v>
+        <v>261.6628906109958</v>
       </c>
       <c r="M3" t="n">
-        <v>659.4341920469252</v>
+        <v>522.2725042231457</v>
       </c>
       <c r="N3" t="n">
-        <v>716.9050068346276</v>
+        <v>782.8821178352956</v>
       </c>
       <c r="O3" t="n">
-        <v>977.3180709271197</v>
+        <v>1043.295181927788</v>
       </c>
       <c r="P3" t="n">
-        <v>977.3180709271197</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="Q3" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R3" t="n">
-        <v>954.9030226480438</v>
+        <v>954.9030226480426</v>
       </c>
       <c r="S3" t="n">
-        <v>782.4144152406848</v>
+        <v>782.4144152406835</v>
       </c>
       <c r="T3" t="n">
-        <v>580.4293576557607</v>
+        <v>782.4144152406835</v>
       </c>
       <c r="U3" t="n">
-        <v>352.2090288979655</v>
+        <v>554.1940864828883</v>
       </c>
       <c r="V3" t="n">
-        <v>352.2090288979655</v>
+        <v>554.1940864828883</v>
       </c>
       <c r="W3" t="n">
-        <v>352.2090288979655</v>
+        <v>554.1940864828883</v>
       </c>
       <c r="X3" t="n">
-        <v>352.2090288979655</v>
+        <v>554.1940864828883</v>
       </c>
       <c r="Y3" t="n">
-        <v>352.2090288979655</v>
+        <v>346.4337877179344</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21.05936271613335</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="C4" t="n">
-        <v>21.05936271613335</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="D4" t="n">
-        <v>21.05936271613335</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="E4" t="n">
-        <v>21.05936271613335</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="F4" t="n">
-        <v>21.05936271613335</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="G4" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H4" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I4" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J4" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K4" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="L4" t="n">
-        <v>54.48163939360305</v>
+        <v>54.48163939360295</v>
       </c>
       <c r="M4" t="n">
-        <v>100.1098670955241</v>
+        <v>100.1098670955239</v>
       </c>
       <c r="N4" t="n">
-        <v>150.08777394865</v>
+        <v>150.0877739486497</v>
       </c>
       <c r="O4" t="n">
-        <v>180.2341645716486</v>
+        <v>180.2341645716483</v>
       </c>
       <c r="P4" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="Q4" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="R4" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="S4" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="T4" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="U4" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="V4" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="W4" t="n">
-        <v>21.05936271613335</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="X4" t="n">
-        <v>21.05936271613335</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="Y4" t="n">
-        <v>21.05936271613335</v>
+        <v>182.5089274706534</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1162.979520512502</v>
+        <v>390.3285409012353</v>
       </c>
       <c r="C5" t="n">
-        <v>1162.979520512502</v>
+        <v>390.3285409012353</v>
       </c>
       <c r="D5" t="n">
-        <v>1162.979520512502</v>
+        <v>390.3285409012353</v>
       </c>
       <c r="E5" t="n">
-        <v>813.6074258865951</v>
+        <v>390.3285409012353</v>
       </c>
       <c r="F5" t="n">
-        <v>422.2995065490638</v>
+        <v>383.3830401520318</v>
       </c>
       <c r="G5" t="n">
-        <v>30.99158721153248</v>
+        <v>368.4567824119755</v>
       </c>
       <c r="H5" t="n">
-        <v>30.99158721153248</v>
+        <v>30.99158721153245</v>
       </c>
       <c r="I5" t="n">
-        <v>30.99158721153248</v>
+        <v>30.99158721153245</v>
       </c>
       <c r="J5" t="n">
-        <v>63.33729848931875</v>
+        <v>63.33729848931853</v>
       </c>
       <c r="K5" t="n">
-        <v>232.5599391817379</v>
+        <v>232.5599391817375</v>
       </c>
       <c r="L5" t="n">
-        <v>494.7722161923847</v>
+        <v>494.7722161923841</v>
       </c>
       <c r="M5" t="n">
-        <v>803.1404427365717</v>
+        <v>803.140442736571</v>
       </c>
       <c r="N5" t="n">
-        <v>1101.866392029486</v>
+        <v>1101.866392029485</v>
       </c>
       <c r="O5" t="n">
-        <v>1338.757197245517</v>
+        <v>1338.757197245516</v>
       </c>
       <c r="P5" t="n">
-        <v>1503.263635927387</v>
+        <v>1503.263635927386</v>
       </c>
       <c r="Q5" t="n">
-        <v>1549.579360576624</v>
+        <v>1549.579360576623</v>
       </c>
       <c r="R5" t="n">
-        <v>1549.579360576624</v>
+        <v>1447.625841776</v>
       </c>
       <c r="S5" t="n">
-        <v>1549.579360576624</v>
+        <v>1447.625841776</v>
       </c>
       <c r="T5" t="n">
-        <v>1549.579360576624</v>
+        <v>1447.625841776</v>
       </c>
       <c r="U5" t="n">
-        <v>1549.579360576624</v>
+        <v>1447.625841776</v>
       </c>
       <c r="V5" t="n">
-        <v>1549.579360576624</v>
+        <v>1116.562954432429</v>
       </c>
       <c r="W5" t="n">
-        <v>1549.579360576624</v>
+        <v>763.7942991623152</v>
       </c>
       <c r="X5" t="n">
-        <v>1549.579360576624</v>
+        <v>390.3285409012353</v>
       </c>
       <c r="Y5" t="n">
-        <v>1549.579360576624</v>
+        <v>390.3285409012353</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>693.6399710353044</v>
+        <v>476.3627596261238</v>
       </c>
       <c r="C6" t="n">
-        <v>519.1869417541774</v>
+        <v>301.9097303449968</v>
       </c>
       <c r="D6" t="n">
-        <v>475.2102872663319</v>
+        <v>152.9753206837455</v>
       </c>
       <c r="E6" t="n">
-        <v>315.9728322608764</v>
+        <v>30.99158721153245</v>
       </c>
       <c r="F6" t="n">
-        <v>169.4382742877614</v>
+        <v>30.99158721153245</v>
       </c>
       <c r="G6" t="n">
-        <v>30.99158721153248</v>
+        <v>30.99158721153245</v>
       </c>
       <c r="H6" t="n">
-        <v>30.99158721153248</v>
+        <v>30.99158721153245</v>
       </c>
       <c r="I6" t="n">
-        <v>30.99158721153248</v>
+        <v>30.99158721153245</v>
       </c>
       <c r="J6" t="n">
-        <v>56.56309157527297</v>
+        <v>30.99158721153245</v>
       </c>
       <c r="K6" t="n">
-        <v>56.56309157527297</v>
+        <v>30.99158721153245</v>
       </c>
       <c r="L6" t="n">
-        <v>126.7612375188601</v>
+        <v>321.4211397210451</v>
       </c>
       <c r="M6" t="n">
-        <v>510.2821292615745</v>
+        <v>615.2249245801634</v>
       </c>
       <c r="N6" t="n">
-        <v>893.8030210042889</v>
+        <v>998.7458163228775</v>
       </c>
       <c r="O6" t="n">
-        <v>1208.814860114879</v>
+        <v>1313.757655433467</v>
       </c>
       <c r="P6" t="n">
-        <v>1444.636565258034</v>
+        <v>1549.579360576623</v>
       </c>
       <c r="Q6" t="n">
-        <v>1549.579360576624</v>
+        <v>1549.579360576623</v>
       </c>
       <c r="R6" t="n">
-        <v>1466.051332697044</v>
+        <v>1549.579360576623</v>
       </c>
       <c r="S6" t="n">
-        <v>1297.911733212598</v>
+        <v>1549.579360576623</v>
       </c>
       <c r="T6" t="n">
-        <v>1297.911733212598</v>
+        <v>1549.579360576623</v>
       </c>
       <c r="U6" t="n">
-        <v>1069.706808260905</v>
+        <v>1549.579360576623</v>
       </c>
       <c r="V6" t="n">
-        <v>1069.706808260905</v>
+        <v>1314.42725234488</v>
       </c>
       <c r="W6" t="n">
-        <v>1069.706808260905</v>
+        <v>1060.189895616679</v>
       </c>
       <c r="X6" t="n">
-        <v>861.8553080553725</v>
+        <v>852.3383954111457</v>
       </c>
       <c r="Y6" t="n">
-        <v>861.8553080553725</v>
+        <v>644.5780966461919</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>177.8815347094428</v>
+        <v>336.1816213179097</v>
       </c>
       <c r="C7" t="n">
-        <v>177.8815347094428</v>
+        <v>325.7946282918359</v>
       </c>
       <c r="D7" t="n">
-        <v>177.8815347094428</v>
+        <v>325.7946282918359</v>
       </c>
       <c r="E7" t="n">
         <v>177.8815347094428</v>
       </c>
       <c r="F7" t="n">
-        <v>30.99158721153248</v>
+        <v>30.99158721153245</v>
       </c>
       <c r="G7" t="n">
-        <v>30.99158721153248</v>
+        <v>30.99158721153245</v>
       </c>
       <c r="H7" t="n">
-        <v>30.99158721153248</v>
+        <v>30.99158721153245</v>
       </c>
       <c r="I7" t="n">
-        <v>30.99158721153248</v>
+        <v>30.99158721153245</v>
       </c>
       <c r="J7" t="n">
-        <v>30.99158721153248</v>
+        <v>30.99158721153245</v>
       </c>
       <c r="K7" t="n">
-        <v>36.06994770177071</v>
+        <v>36.06994770177063</v>
       </c>
       <c r="L7" t="n">
-        <v>98.09493531391557</v>
+        <v>98.09493531391541</v>
       </c>
       <c r="M7" t="n">
-        <v>173.8807113004522</v>
+        <v>173.880711300452</v>
       </c>
       <c r="N7" t="n">
-        <v>253.2990873454203</v>
+        <v>253.29908734542</v>
       </c>
       <c r="O7" t="n">
-        <v>310.6385163451054</v>
+        <v>310.638516345105</v>
       </c>
       <c r="P7" t="n">
-        <v>336.1816213179101</v>
+        <v>336.1816213179097</v>
       </c>
       <c r="Q7" t="n">
-        <v>336.1816213179101</v>
+        <v>336.1816213179097</v>
       </c>
       <c r="R7" t="n">
-        <v>177.8815347094428</v>
+        <v>336.1816213179097</v>
       </c>
       <c r="S7" t="n">
-        <v>177.8815347094428</v>
+        <v>336.1816213179097</v>
       </c>
       <c r="T7" t="n">
-        <v>177.8815347094428</v>
+        <v>336.1816213179097</v>
       </c>
       <c r="U7" t="n">
-        <v>177.8815347094428</v>
+        <v>336.1816213179097</v>
       </c>
       <c r="V7" t="n">
-        <v>177.8815347094428</v>
+        <v>336.1816213179097</v>
       </c>
       <c r="W7" t="n">
-        <v>177.8815347094428</v>
+        <v>336.1816213179097</v>
       </c>
       <c r="X7" t="n">
-        <v>177.8815347094428</v>
+        <v>336.1816213179097</v>
       </c>
       <c r="Y7" t="n">
-        <v>177.8815347094428</v>
+        <v>336.1816213179097</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1595.875667274027</v>
+        <v>768.2839875620907</v>
       </c>
       <c r="C8" t="n">
-        <v>1595.875667274027</v>
+        <v>399.321470621679</v>
       </c>
       <c r="D8" t="n">
-        <v>1595.875667274027</v>
+        <v>399.321470621679</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>399.321470621679</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>392.3759698724755</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4807,10 +4807,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2313.538394681719</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>1982.475507338148</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W8" t="n">
-        <v>1982.475507338148</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X8" t="n">
-        <v>1982.475507338148</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="Y8" t="n">
-        <v>1982.475507338148</v>
+        <v>1154.883827626212</v>
       </c>
     </row>
     <row r="9">
@@ -4892,16 +4892,16 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>268.535689181137</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="C10" t="n">
-        <v>99.5995062532301</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="D10" t="n">
-        <v>99.5995062532301</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E10" t="n">
-        <v>99.5995062532301</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F10" t="n">
-        <v>99.5995062532301</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G10" t="n">
         <v>99.5995062532301</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>495.8438765125353</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>268.535689181137</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>268.535689181137</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>268.535689181137</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>268.535689181137</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>268.535689181137</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>268.535689181137</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5026,10 +5026,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155889</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5041,22 +5041,22 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P11" t="n">
         <v>4454.632848899126</v>
@@ -5068,13 +5068,13 @@
         <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231262</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141866</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
         <v>3931.294970121731</v>
@@ -5108,13 +5108,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
         <v>97.21709146028583</v>
@@ -5123,19 +5123,19 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277031</v>
       </c>
       <c r="L12" t="n">
-        <v>901.674922584592</v>
+        <v>534.542980734167</v>
       </c>
       <c r="M12" t="n">
-        <v>1208.995055864553</v>
+        <v>1302.911127126628</v>
       </c>
       <c r="N12" t="n">
-        <v>2013.406634128704</v>
+        <v>1632.773754790661</v>
       </c>
       <c r="O12" t="n">
-        <v>2292.946699347401</v>
+        <v>2302.23751609332</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>509.2863307027308</v>
+        <v>268.6754855415405</v>
       </c>
       <c r="C13" t="n">
-        <v>509.2863307027308</v>
+        <v>268.6754855415405</v>
       </c>
       <c r="D13" t="n">
-        <v>359.1696912903951</v>
+        <v>268.6754855415405</v>
       </c>
       <c r="E13" t="n">
-        <v>359.1696912903951</v>
+        <v>268.6754855415405</v>
       </c>
       <c r="F13" t="n">
-        <v>359.1696912903951</v>
+        <v>121.7855380436301</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>121.7855380436301</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>121.7855380436301</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028583</v>
@@ -5202,19 +5202,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1009.867621687013</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V13" t="n">
-        <v>755.183133481126</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="W13" t="n">
-        <v>755.183133481126</v>
+        <v>496.6650364395578</v>
       </c>
       <c r="X13" t="n">
-        <v>755.183133481126</v>
+        <v>268.6754855415405</v>
       </c>
       <c r="Y13" t="n">
-        <v>534.3905543375959</v>
+        <v>268.6754855415405</v>
       </c>
     </row>
     <row r="14">
@@ -5275,49 +5275,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277035</v>
       </c>
       <c r="L15" t="n">
-        <v>891.4406401619858</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441947</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>713.8401545872508</v>
+        <v>216.9038434870662</v>
       </c>
       <c r="C16" t="n">
-        <v>713.8401545872508</v>
+        <v>216.9038434870662</v>
       </c>
       <c r="D16" t="n">
-        <v>563.7235151749151</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U16" t="n">
-        <v>1187.92115703528</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V16" t="n">
-        <v>1187.92115703528</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="W16" t="n">
-        <v>898.5039869983193</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="X16" t="n">
-        <v>898.5039869983193</v>
+        <v>437.6964226305963</v>
       </c>
       <c r="Y16" t="n">
-        <v>713.8401545872508</v>
+        <v>216.9038434870662</v>
       </c>
     </row>
     <row r="17">
@@ -5494,34 +5494,34 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805472</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822465</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5533,28 +5533,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5591,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>964.135741824786</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>675.0071030383442</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>420.3226148324574</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>130.9054447954967</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5740,22 +5740,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5764,7 +5764,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5779,19 +5779,19 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590536</v>
@@ -5834,25 +5834,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1039.489963795367</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>360.513228254778</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>360.513228254778</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1098.712528333286</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>1098.712528333286</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>809.2953582963255</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
-        <v>581.3058073983082</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>360.513228254778</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
@@ -5992,16 +5992,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6016,25 +6016,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6068,22 +6068,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>796.3635653766202</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M24" t="n">
-        <v>1103.683698656582</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N24" t="n">
-        <v>1433.546326320615</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>844.0280401273993</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>554.6108700904388</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>429.2835647425823</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>429.2835647425823</v>
       </c>
     </row>
     <row r="26">
@@ -6205,31 +6205,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6238,40 +6238,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6302,25 +6302,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>891.4406401619856</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M27" t="n">
-        <v>1198.760773441947</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N27" t="n">
-        <v>1528.62340110598</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011507</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952638</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="29">
@@ -6442,34 +6442,34 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805475</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822468</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6478,13 +6478,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014293</v>
@@ -6496,13 +6496,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
         <v>3205.060556590537</v>
@@ -6542,28 +6542,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>677.9999391053083</v>
+        <v>558.0926555784977</v>
       </c>
       <c r="C31" t="n">
-        <v>677.4616523829103</v>
+        <v>558.0926555784977</v>
       </c>
       <c r="D31" t="n">
-        <v>527.3450129705745</v>
+        <v>407.9760161661619</v>
       </c>
       <c r="E31" t="n">
-        <v>527.3450129705745</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F31" t="n">
-        <v>527.3450129705745</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G31" t="n">
         <v>359.1696912903951</v>
@@ -6627,46 +6627,46 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799328</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471155</v>
       </c>
       <c r="N31" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974663</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.48306298006</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585743</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473451</v>
       </c>
       <c r="T31" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.210845262957</v>
       </c>
       <c r="U31" t="n">
-        <v>898.7925182488384</v>
+        <v>786.082206476515</v>
       </c>
       <c r="V31" t="n">
-        <v>898.7925182488384</v>
+        <v>786.082206476515</v>
       </c>
       <c r="W31" t="n">
-        <v>898.7925182488384</v>
+        <v>786.082206476515</v>
       </c>
       <c r="X31" t="n">
-        <v>898.7925182488384</v>
+        <v>558.0926555784977</v>
       </c>
       <c r="Y31" t="n">
-        <v>677.9999391053083</v>
+        <v>558.0926555784977</v>
       </c>
     </row>
     <row r="32">
@@ -6679,19 +6679,19 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6700,25 +6700,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.627437207831</v>
@@ -6733,13 +6733,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
         <v>3205.060556590537</v>
@@ -6779,28 +6779,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3799.634725086987</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>3630.69854215908</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>3630.69854215908</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>3630.69854215908</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>3609.573402368733</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>3609.573402368733</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4860.854573014293</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T34" t="n">
-        <v>4860.854573014293</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>4571.725934227851</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V34" t="n">
-        <v>4317.041446021964</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W34" t="n">
-        <v>4027.624275985004</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>3799.634725086987</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>3799.634725086987</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6916,52 +6916,52 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805474</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231265</v>
@@ -6976,7 +6976,7 @@
         <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
         <v>3205.060556590537</v>
@@ -7013,31 +7013,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>1206.718781115523</v>
+        <v>921.193690363625</v>
       </c>
       <c r="M36" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4096.801546389155</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C37" t="n">
-        <v>3927.865363461248</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D37" t="n">
-        <v>3777.748724048913</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E37" t="n">
-        <v>3777.748724048913</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F37" t="n">
-        <v>3777.748724048913</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G37" t="n">
-        <v>3609.573402368733</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4749.779469576119</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>4525.994054365625</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>4525.994054365625</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>4499.242590362925</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W37" t="n">
-        <v>4499.242590362925</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X37" t="n">
-        <v>4499.242590362925</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y37" t="n">
-        <v>4278.450011219395</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="38">
@@ -7153,10 +7153,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7174,25 +7174,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
@@ -7201,16 +7201,16 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
         <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
@@ -7253,25 +7253,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
-        <v>1514.038914395485</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N39" t="n">
-        <v>1843.901542059518</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>174.2673780309318</v>
       </c>
       <c r="E40" t="n">
         <v>97.21709146028584</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765186</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="41">
@@ -7396,25 +7396,25 @@
         <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7429,13 +7429,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7487,28 +7487,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>326.2492756170072</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>940.1463453738959</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M42" t="n">
-        <v>1247.466478653857</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>247.3337308726216</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C43" t="n">
-        <v>247.3337308726216</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028587</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1000.201593667274</v>
       </c>
       <c r="U43" t="n">
-        <v>1075.21084526296</v>
+        <v>711.072954880832</v>
       </c>
       <c r="V43" t="n">
-        <v>820.5263570570736</v>
+        <v>711.072954880832</v>
       </c>
       <c r="W43" t="n">
-        <v>820.5263570570736</v>
+        <v>711.072954880832</v>
       </c>
       <c r="X43" t="n">
-        <v>592.5368061590563</v>
+        <v>711.072954880832</v>
       </c>
       <c r="Y43" t="n">
-        <v>371.7442270155261</v>
+        <v>711.072954880832</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7633,13 +7633,13 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805463</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822463</v>
@@ -7651,7 +7651,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7666,7 +7666,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7675,13 +7675,13 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
         <v>3931.29497012173</v>
@@ -7727,22 +7727,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>1206.718781115524</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M45" t="n">
-        <v>1514.038914395485</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N45" t="n">
-        <v>1843.901542059518</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,7 +7782,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>1099.383571417482</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>810.2549326310402</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>555.5704444251534</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>266.1532743881928</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>129.8481964236088</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>392.8337743093849</v>
+        <v>392.8337743093848</v>
       </c>
       <c r="N3" t="n">
-        <v>176.5187893975314</v>
+        <v>381.709495280812</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>124.5219861368072</v>
+        <v>134.2926466205231</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,19 +8294,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>100.2612329527922</v>
       </c>
       <c r="K6" t="n">
-        <v>92.41814909163685</v>
+        <v>92.41814909163693</v>
       </c>
       <c r="L6" t="n">
-        <v>148.3843790752515</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>458.2546405184963</v>
+        <v>367.6313002320358</v>
       </c>
       <c r="N6" t="n">
-        <v>445.5759018009053</v>
+        <v>445.5759018009052</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>104.074464181718</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8540,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>422.286579409329</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8774,25 +8774,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>38.86002301949938</v>
+        <v>29.47535963978325</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9011,25 +9011,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>360.5026862907258</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>423.337678916511</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9482,28 +9482,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>73.53204524669997</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>169.2863157167183</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9731,10 +9731,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>96.03744927814694</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>96.03744927814688</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10190,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>169.2863157167183</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>169.2863157167183</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298383</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10670,7 +10670,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,19 +10901,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>288.4091825776757</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,28 +11141,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>38.86002301949895</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>360.5026862907255</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11375,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>288.4091825776757</v>
+        <v>360.5026862907255</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23317,7 +23317,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>154.9787987834209</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>86.09648334676116</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,22 +23469,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23658,19 +23658,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>30.12558851169983</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>35.76745926513701</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>192.3581855871784</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24132,7 +24132,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>36.86612595920124</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24144,7 +24144,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24381,7 +24381,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>82.39383318338548</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>101.6356230946592</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24651,13 +24651,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338567</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,19 +24840,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>166.7139172434538</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>98.11570101956005</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25077,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25086,13 +25086,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>124.5071596304881</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25125,10 +25125,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,10 +25326,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>225.6536939611548</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>70.15417894162964</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25599,16 +25599,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>82.39383318338562</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>56.66558900046184</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>35.70519332406289</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26025,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26073,10 +26073,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T46" t="n">
-        <v>23.93099889297636</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>750084.1514670786</v>
+        <v>750084.1514670787</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>750084.1514670787</v>
+        <v>750084.1514670786</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>750084.1514670787</v>
+        <v>750084.1514670786</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>750084.1514670787</v>
+        <v>750084.1514670786</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>750084.1514670786</v>
+        <v>750084.1514670787</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914264</v>
+        <v>656833.4158914268</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.415891427</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914264</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="E2" t="n">
+        <v>625646.4955803343</v>
+      </c>
+      <c r="F2" t="n">
+        <v>625646.4955803339</v>
+      </c>
+      <c r="G2" t="n">
+        <v>625646.4955803341</v>
+      </c>
+      <c r="H2" t="n">
+        <v>625646.4955803342</v>
+      </c>
+      <c r="I2" t="n">
         <v>625646.495580334</v>
       </c>
-      <c r="F2" t="n">
+      <c r="J2" t="n">
         <v>625646.495580334</v>
       </c>
-      <c r="G2" t="n">
-        <v>625646.495580334</v>
-      </c>
-      <c r="H2" t="n">
-        <v>625646.4955803343</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
+        <v>625646.4955803338</v>
+      </c>
+      <c r="L2" t="n">
+        <v>625646.4955803341</v>
+      </c>
+      <c r="M2" t="n">
+        <v>625646.4955803344</v>
+      </c>
+      <c r="N2" t="n">
         <v>625646.4955803342</v>
       </c>
-      <c r="J2" t="n">
-        <v>625646.4955803344</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="O2" t="n">
         <v>625646.4955803341</v>
       </c>
-      <c r="L2" t="n">
-        <v>625646.4955803338</v>
-      </c>
-      <c r="M2" t="n">
-        <v>625646.495580334</v>
-      </c>
-      <c r="N2" t="n">
-        <v>625646.4955803341</v>
-      </c>
-      <c r="O2" t="n">
-        <v>625646.495580334</v>
-      </c>
       <c r="P2" t="n">
-        <v>625646.4955803339</v>
+        <v>625646.4955803342</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>110394.4548749498</v>
+        <v>110394.4548749495</v>
       </c>
       <c r="C3" t="n">
         <v>138241.1818300997</v>
       </c>
       <c r="D3" t="n">
-        <v>300621.8974133492</v>
+        <v>300621.8974133495</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768958</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5.796129016744089e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,19 +26389,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68875.69873124997</v>
+        <v>68875.69873124985</v>
       </c>
       <c r="K3" t="n">
-        <v>31952.95942414853</v>
+        <v>31952.95942414856</v>
       </c>
       <c r="L3" t="n">
-        <v>72609.89266179866</v>
+        <v>72609.89266179873</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>5.148837678054155e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>279327.2236236408</v>
       </c>
       <c r="C4" t="n">
-        <v>239463.3485659243</v>
+        <v>239463.3485659244</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
+        <v>7916.731656007483</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7916.731656007483</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7916.731656007483</v>
+      </c>
+      <c r="H4" t="n">
         <v>7916.731656007484</v>
       </c>
-      <c r="F4" t="n">
-        <v>7916.731656007485</v>
-      </c>
-      <c r="G4" t="n">
-        <v>7916.731656007504</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7916.731656007518</v>
-      </c>
       <c r="I4" t="n">
+        <v>7916.731656007484</v>
+      </c>
+      <c r="J4" t="n">
         <v>7916.731656007483</v>
       </c>
-      <c r="J4" t="n">
-        <v>7916.731656007484</v>
-      </c>
       <c r="K4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007432</v>
       </c>
       <c r="L4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="M4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007458</v>
       </c>
       <c r="N4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007507</v>
       </c>
       <c r="O4" t="n">
-        <v>7916.731656007487</v>
+        <v>7916.731656007525</v>
       </c>
       <c r="P4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007485</v>
       </c>
     </row>
     <row r="5">
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>50134.40740683336</v>
+        <v>50134.40740683334</v>
       </c>
       <c r="C5" t="n">
-        <v>60032.1756226718</v>
+        <v>60032.17562267178</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26481,7 +26481,7 @@
         <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26502,16 +26502,16 @@
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="N5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="N5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>216977.3299860024</v>
+        <v>216977.3299860031</v>
       </c>
       <c r="C6" t="n">
-        <v>219096.7098727312</v>
+        <v>219096.7098727308</v>
       </c>
       <c r="D6" t="n">
-        <v>125435.3916987469</v>
+        <v>125435.3916987468</v>
       </c>
       <c r="E6" t="n">
-        <v>582.4014987139817</v>
+        <v>-392.1897610071949</v>
       </c>
       <c r="F6" t="n">
-        <v>525742.4379756099</v>
+        <v>524767.8467158875</v>
       </c>
       <c r="G6" t="n">
-        <v>525742.4379756099</v>
+        <v>524767.8467158886</v>
       </c>
       <c r="H6" t="n">
-        <v>525742.4379756103</v>
+        <v>524767.8467158885</v>
       </c>
       <c r="I6" t="n">
-        <v>525742.4379756101</v>
+        <v>524767.8467158882</v>
       </c>
       <c r="J6" t="n">
-        <v>456866.7392443604</v>
+        <v>455892.1479846383</v>
       </c>
       <c r="K6" t="n">
-        <v>493789.4785514615</v>
+        <v>492814.8872917395</v>
       </c>
       <c r="L6" t="n">
-        <v>453132.545313811</v>
+        <v>452157.9540540896</v>
       </c>
       <c r="M6" t="n">
-        <v>390941.4227417728</v>
+        <v>389966.8314820515</v>
       </c>
       <c r="N6" t="n">
-        <v>525742.43797561</v>
+        <v>524767.8467158885</v>
       </c>
       <c r="O6" t="n">
-        <v>525742.4379756099</v>
+        <v>524767.8467158884</v>
       </c>
       <c r="P6" t="n">
-        <v>525742.4379756098</v>
+        <v>524767.8467158885</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.453686889477613e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.453686889477613e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.453686889477613e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.453686889477613e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.453686889477613e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26721,10 +26721,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.01338268678962</v>
+        <v>23.01338268678932</v>
       </c>
       <c r="C3" t="n">
-        <v>130.7784101792256</v>
+        <v>130.7784101792253</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
@@ -26773,13 +26773,13 @@
         <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.2420339516669</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="C4" t="n">
-        <v>387.394840144156</v>
+        <v>387.3948401441557</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26822,7 +26822,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.453686889477613e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26943,7 +26943,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.01338268678962</v>
+        <v>23.01338268678932</v>
       </c>
       <c r="C3" t="n">
         <v>107.765027492436</v>
       </c>
       <c r="D3" t="n">
-        <v>246.9652540378611</v>
+        <v>246.9652540378614</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370133</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-5.890353237831464e-14</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,19 +27011,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.2420339516669</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="C4" t="n">
         <v>124.1528061924891</v>
       </c>
       <c r="D4" t="n">
-        <v>286.8924326103996</v>
+        <v>286.8924326103999</v>
       </c>
       <c r="E4" t="n">
         <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.2420339516671</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="K4" t="n">
-        <v>124.1528061924891</v>
+        <v>124.1528061924893</v>
       </c>
       <c r="L4" t="n">
-        <v>286.8924326103996</v>
+        <v>286.8924326103999</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.453686889477613e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,19 +27257,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.2420339516669</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="K4" t="n">
         <v>124.1528061924891</v>
       </c>
       <c r="L4" t="n">
-        <v>286.8924326103996</v>
+        <v>286.8924326103999</v>
       </c>
       <c r="M4" t="n">
         <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.4918077118137</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.6340117900446</v>
+        <v>213.8105571114534</v>
       </c>
       <c r="G2" t="n">
-        <v>151.9681874521645</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>317.6726967390152</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I2" t="n">
-        <v>206.9091621893709</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>144.0576027644701</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>222.6908602868995</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3382516189322</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27457,13 +27457,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17.12100188640002</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27472,13 +27472,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>129.6094117126364</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H3" t="n">
         <v>111.757373777286</v>
       </c>
       <c r="I3" t="n">
-        <v>87.69233988828962</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27511,7 +27511,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27526,7 +27526,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27551,19 +27551,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9494798159088</v>
+        <v>8.114410708933974</v>
       </c>
       <c r="H4" t="n">
         <v>161.8582038473137</v>
       </c>
       <c r="I4" t="n">
-        <v>154.2024705022107</v>
+        <v>154.2024705022108</v>
       </c>
       <c r="J4" t="n">
-        <v>90.42516245839141</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="K4" t="n">
-        <v>17.44799951871611</v>
+        <v>17.44799951871617</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.68702246598916</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="R4" t="n">
         <v>175.4274210366964</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>126.6879292296158</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27624,19 +27624,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>36.05199639261383</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>19.48120559755546</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>27.38215501849977</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>334.0905432484385</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>190.2072075264477</v>
+        <v>190.2072075264478</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>116.8439548922219</v>
+        <v>15.90997127960546</v>
       </c>
       <c r="S5" t="n">
         <v>197.0397157291233</v>
@@ -27675,13 +27675,13 @@
         <v>251.3035935196382</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27700,22 +27700,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>103.9081776216718</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>36.88118431791003</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.0622202054666</v>
       </c>
       <c r="H6" t="n">
         <v>109.518707828811</v>
       </c>
       <c r="I6" t="n">
-        <v>79.7116279466328</v>
+        <v>79.71162794663283</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.69274760078356</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>166.4582034896018</v>
       </c>
       <c r="T6" t="n">
         <v>199.0309045537394</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9228757021759</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27776,13 +27776,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>156.9636980028148</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27797,7 +27797,7 @@
         <v>148.3584260604898</v>
       </c>
       <c r="J7" t="n">
-        <v>76.68600477300332</v>
+        <v>76.68600477300335</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>66.41450331463133</v>
+        <v>66.41450331463136</v>
       </c>
       <c r="R7" t="n">
-        <v>9.972534868451646</v>
+        <v>166.6896206108343</v>
       </c>
       <c r="S7" t="n">
         <v>219.9067257039628</v>
@@ -27855,22 +27855,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>78.73551184920501</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27909,16 +27909,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>45.86529094412271</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>165.3680829550287</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28055,16 +28055,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>11.30603228797307</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28611,7 +28611,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>4.482850872120942e-13</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -28866,7 +28866,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>7.591169072650795e-13</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29699,7 +29699,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>-3.758651504979533e-12</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -30288,7 +30288,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>5.464171643889758e-13</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -30474,7 +30474,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09251611130367678</v>
+        <v>0.09251611130367558</v>
       </c>
       <c r="H2" t="n">
-        <v>0.94748062488878</v>
+        <v>0.9474806248887679</v>
       </c>
       <c r="I2" t="n">
-        <v>3.566727381035002</v>
+        <v>3.566727381034957</v>
       </c>
       <c r="J2" t="n">
-        <v>7.852189301760444</v>
+        <v>7.852189301760344</v>
       </c>
       <c r="K2" t="n">
-        <v>11.76839629324508</v>
+        <v>11.76839629324494</v>
       </c>
       <c r="L2" t="n">
-        <v>14.59973623455499</v>
+        <v>14.5997362345548</v>
       </c>
       <c r="M2" t="n">
-        <v>16.24501962895175</v>
+        <v>16.24501962895154</v>
       </c>
       <c r="N2" t="n">
-        <v>16.50788103019332</v>
+        <v>16.50788103019311</v>
       </c>
       <c r="O2" t="n">
-        <v>15.58792394841738</v>
+        <v>15.58792394841718</v>
       </c>
       <c r="P2" t="n">
-        <v>13.30393245060786</v>
+        <v>13.30393245060769</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544932</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>5.811515176679592</v>
+        <v>5.811515176679516</v>
       </c>
       <c r="S2" t="n">
-        <v>2.108210886332537</v>
+        <v>2.108210886332509</v>
       </c>
       <c r="T2" t="n">
-        <v>0.4049892772318453</v>
+        <v>0.4049892772318401</v>
       </c>
       <c r="U2" t="n">
-        <v>0.00740128890429414</v>
+        <v>0.007401288904294046</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04950048351498144</v>
+        <v>0.0495004835149808</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4780704592104787</v>
+        <v>0.4780704592104726</v>
       </c>
       <c r="I3" t="n">
-        <v>1.704292963125458</v>
+        <v>1.704292963125436</v>
       </c>
       <c r="J3" t="n">
-        <v>4.676710155246559</v>
+        <v>4.676710155246499</v>
       </c>
       <c r="K3" t="n">
-        <v>7.993242550750314</v>
+        <v>7.993242550750212</v>
       </c>
       <c r="L3" t="n">
-        <v>10.74790103688226</v>
+        <v>10.74790103688213</v>
       </c>
       <c r="M3" t="n">
-        <v>12.54229356430034</v>
+        <v>12.54229356430018</v>
       </c>
       <c r="N3" t="n">
-        <v>12.87425075418809</v>
+        <v>12.87425075418792</v>
       </c>
       <c r="O3" t="n">
-        <v>11.77742425104034</v>
+        <v>11.77742425104019</v>
       </c>
       <c r="P3" t="n">
-        <v>9.452421277523079</v>
+        <v>9.452421277522957</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.318693299210613</v>
+        <v>6.318693299210532</v>
       </c>
       <c r="R3" t="n">
-        <v>3.073372125605603</v>
+        <v>3.073372125605564</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9194497705523959</v>
+        <v>0.9194497705523841</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1995216857467891</v>
+        <v>0.1995216857467866</v>
       </c>
       <c r="U3" t="n">
-        <v>0.00325661075756457</v>
+        <v>0.003256610757564528</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04149954254994848</v>
+        <v>0.04149954254994795</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3689686601259058</v>
+        <v>0.3689686601259011</v>
       </c>
       <c r="I4" t="n">
-        <v>1.248004425047542</v>
+        <v>1.248004425047526</v>
       </c>
       <c r="J4" t="n">
-        <v>2.934017658281358</v>
+        <v>2.93401765828132</v>
       </c>
       <c r="K4" t="n">
-        <v>4.821492307166741</v>
+        <v>4.821492307166679</v>
       </c>
       <c r="L4" t="n">
-        <v>6.169850171471433</v>
+        <v>6.169850171471354</v>
       </c>
       <c r="M4" t="n">
-        <v>6.505241928988742</v>
+        <v>6.505241928988658</v>
       </c>
       <c r="N4" t="n">
-        <v>6.35056181584803</v>
+        <v>6.350561815847949</v>
       </c>
       <c r="O4" t="n">
-        <v>5.865771705150903</v>
+        <v>5.865771705150827</v>
       </c>
       <c r="P4" t="n">
-        <v>5.019181037131949</v>
+        <v>5.019181037131885</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.475020785705232</v>
+        <v>3.475020785705187</v>
       </c>
       <c r="R4" t="n">
-        <v>1.865970340473138</v>
+        <v>1.865970340473114</v>
       </c>
       <c r="S4" t="n">
-        <v>0.723223846075011</v>
+        <v>0.7232238460750018</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1773162272588708</v>
+        <v>0.1773162272588684</v>
       </c>
       <c r="U4" t="n">
-        <v>0.002263611411815374</v>
+        <v>0.002263611411815345</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5257423524792983</v>
+        <v>0.5257423524792973</v>
       </c>
       <c r="H5" t="n">
-        <v>5.384258867328616</v>
+        <v>5.384258867328605</v>
       </c>
       <c r="I5" t="n">
-        <v>20.26868204395817</v>
+        <v>20.26868204395813</v>
       </c>
       <c r="J5" t="n">
-        <v>44.62172498873989</v>
+        <v>44.62172498873981</v>
       </c>
       <c r="K5" t="n">
-        <v>66.87639876918861</v>
+        <v>66.87639876918847</v>
       </c>
       <c r="L5" t="n">
-        <v>82.96608628887695</v>
+        <v>82.9660862888768</v>
       </c>
       <c r="M5" t="n">
-        <v>92.31575684978067</v>
+        <v>92.31575684978048</v>
       </c>
       <c r="N5" t="n">
-        <v>93.80952230876248</v>
+        <v>93.8095223087623</v>
       </c>
       <c r="O5" t="n">
-        <v>88.58167179129646</v>
+        <v>88.58167179129629</v>
       </c>
       <c r="P5" t="n">
-        <v>75.60240746446377</v>
+        <v>75.60240746446362</v>
       </c>
       <c r="Q5" t="n">
-        <v>56.77425946629887</v>
+        <v>56.77425946629877</v>
       </c>
       <c r="R5" t="n">
-        <v>33.02516304892776</v>
+        <v>33.02516304892769</v>
       </c>
       <c r="S5" t="n">
-        <v>11.98035385712202</v>
+        <v>11.980353857122</v>
       </c>
       <c r="T5" t="n">
-        <v>2.30143714797813</v>
+        <v>2.301437147978125</v>
       </c>
       <c r="U5" t="n">
-        <v>0.04205938819834387</v>
+        <v>0.04205938819834378</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2812969577439947</v>
+        <v>0.2812969577439941</v>
       </c>
       <c r="H6" t="n">
-        <v>2.716736407685422</v>
+        <v>2.716736407685417</v>
       </c>
       <c r="I6" t="n">
-        <v>9.685004904782273</v>
+        <v>9.685004904782254</v>
       </c>
       <c r="J6" t="n">
-        <v>26.57639371387452</v>
+        <v>26.57639371387446</v>
       </c>
       <c r="K6" t="n">
-        <v>45.42328988272215</v>
+        <v>45.42328988272207</v>
       </c>
       <c r="L6" t="n">
-        <v>61.07721882945814</v>
+        <v>61.07721882945802</v>
       </c>
       <c r="M6" t="n">
-        <v>71.27423354767792</v>
+        <v>71.2742335476778</v>
       </c>
       <c r="N6" t="n">
-        <v>73.16065042658394</v>
+        <v>73.1606504265838</v>
       </c>
       <c r="O6" t="n">
-        <v>66.92770204709858</v>
+        <v>66.92770204709845</v>
       </c>
       <c r="P6" t="n">
-        <v>53.71538134323701</v>
+        <v>53.71538134323691</v>
       </c>
       <c r="Q6" t="n">
-        <v>35.9073099043036</v>
+        <v>35.90730990430353</v>
       </c>
       <c r="R6" t="n">
-        <v>17.4650865518596</v>
+        <v>17.46508655185957</v>
       </c>
       <c r="S6" t="n">
-        <v>5.224967614236038</v>
+        <v>5.224967614236027</v>
       </c>
       <c r="T6" t="n">
-        <v>1.133824141082153</v>
+        <v>1.133824141082151</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01850637879894702</v>
+        <v>0.01850637879894699</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2358299199953248</v>
+        <v>0.2358299199953243</v>
       </c>
       <c r="H7" t="n">
-        <v>2.096742379594798</v>
+        <v>2.096742379594794</v>
       </c>
       <c r="I7" t="n">
-        <v>7.092048866768496</v>
+        <v>7.092048866768483</v>
       </c>
       <c r="J7" t="n">
-        <v>16.67317534366946</v>
+        <v>16.67317534366943</v>
       </c>
       <c r="K7" t="n">
-        <v>27.39914888672955</v>
+        <v>27.39914888672949</v>
       </c>
       <c r="L7" t="n">
-        <v>35.06147737821402</v>
+        <v>35.06147737821395</v>
       </c>
       <c r="M7" t="n">
-        <v>36.96741191344895</v>
+        <v>36.96741191344888</v>
       </c>
       <c r="N7" t="n">
-        <v>36.0884094843755</v>
+        <v>36.08840948437543</v>
       </c>
       <c r="O7" t="n">
-        <v>33.33348723715737</v>
+        <v>33.33348723715731</v>
       </c>
       <c r="P7" t="n">
-        <v>28.52255686925272</v>
+        <v>28.52255686925267</v>
       </c>
       <c r="Q7" t="n">
-        <v>19.74753993706306</v>
+        <v>19.74753993706302</v>
       </c>
       <c r="R7" t="n">
-        <v>10.60377076633524</v>
+        <v>10.60377076633522</v>
       </c>
       <c r="S7" t="n">
-        <v>4.109872333009431</v>
+        <v>4.109872333009423</v>
       </c>
       <c r="T7" t="n">
-        <v>1.007636930889115</v>
+        <v>1.007636930889113</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01286345018156318</v>
+        <v>0.01286345018156316</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31755,46 +31755,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,43 +31834,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,43 +31916,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N13" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>115.8239578194293</v>
+        <v>115.8239578194291</v>
       </c>
       <c r="L2" t="n">
-        <v>196.4945358150182</v>
+        <v>196.494535815018</v>
       </c>
       <c r="M2" t="n">
-        <v>235.4123198945115</v>
+        <v>235.4123198945113</v>
       </c>
       <c r="N2" t="n">
-        <v>224.4417418455866</v>
+        <v>224.4417418455864</v>
       </c>
       <c r="O2" t="n">
-        <v>166.289893789476</v>
+        <v>166.2898937894758</v>
       </c>
       <c r="P2" t="n">
-        <v>103.869644866821</v>
+        <v>103.8696448668208</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3.930118828988702</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>134.6170405889699</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>243.0338665604673</v>
+        <v>243.0338665604671</v>
       </c>
       <c r="M3" t="n">
-        <v>263.2420339516669</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="N3" t="n">
-        <v>58.05132806838621</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="O3" t="n">
-        <v>263.0434990833254</v>
+        <v>263.0434990833253</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>9.770660483715774</v>
       </c>
       <c r="Q3" t="n">
-        <v>76.41420694903819</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,19 +34862,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>33.75987543178757</v>
+        <v>33.75987543178749</v>
       </c>
       <c r="M4" t="n">
-        <v>46.08911889082933</v>
+        <v>46.08911889082925</v>
       </c>
       <c r="N4" t="n">
-        <v>50.48273419507662</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="O4" t="n">
-        <v>30.45089961919058</v>
+        <v>30.4508996191905</v>
       </c>
       <c r="P4" t="n">
-        <v>2.297740302025437</v>
+        <v>2.297740302025373</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>32.67243563412737</v>
+        <v>32.67243563412729</v>
       </c>
       <c r="K5" t="n">
-        <v>170.9319602953728</v>
+        <v>170.9319602953727</v>
       </c>
       <c r="L5" t="n">
-        <v>264.8608858693402</v>
+        <v>264.86088586934</v>
       </c>
       <c r="M5" t="n">
-        <v>311.4830571153404</v>
+        <v>311.4830571153402</v>
       </c>
       <c r="N5" t="n">
-        <v>301.7433831241557</v>
+        <v>301.7433831241556</v>
       </c>
       <c r="O5" t="n">
-        <v>239.2836416323551</v>
+        <v>239.2836416323549</v>
       </c>
       <c r="P5" t="n">
-        <v>166.1681198806769</v>
+        <v>166.1681198806767</v>
       </c>
       <c r="Q5" t="n">
-        <v>46.78356025175407</v>
+        <v>46.78356025175396</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>25.82980238761666</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>70.90721812483545</v>
+        <v>293.363184353043</v>
       </c>
       <c r="M6" t="n">
-        <v>387.394840144156</v>
+        <v>296.7714998576952</v>
       </c>
       <c r="N6" t="n">
-        <v>387.394840144156</v>
+        <v>387.3948401441557</v>
       </c>
       <c r="O6" t="n">
-        <v>318.1937768793837</v>
+        <v>318.1937768793836</v>
       </c>
       <c r="P6" t="n">
-        <v>238.2037425688439</v>
+        <v>238.2037425688438</v>
       </c>
       <c r="Q6" t="n">
-        <v>106.0028235541312</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>5.129657060846693</v>
+        <v>5.12965706084664</v>
       </c>
       <c r="L7" t="n">
-        <v>62.65150263853016</v>
+        <v>62.65150263853009</v>
       </c>
       <c r="M7" t="n">
-        <v>76.55128887528954</v>
+        <v>76.55128887528946</v>
       </c>
       <c r="N7" t="n">
-        <v>80.22058186360408</v>
+        <v>80.22058186360402</v>
       </c>
       <c r="O7" t="n">
-        <v>57.91861515119705</v>
+        <v>57.91861515119698</v>
       </c>
       <c r="P7" t="n">
-        <v>25.80111613414621</v>
+        <v>25.80111613414616</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35260,7 +35260,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856228</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338903</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879391</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>245.953437951024</v>
+        <v>236.5687745713078</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507405</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35576,7 +35576,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L15" t="n">
-        <v>609.76039124675</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>756.532252314524</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349856</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>345.2951542341712</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504663</v>
@@ -35980,7 +35980,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
@@ -36202,28 +36202,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>383.9564222971663</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>257.2993485017925</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504663</v>
@@ -36451,10 +36451,10 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>378.4011515192551</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36673,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>345.2951542341712</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504663</v>
@@ -36691,7 +36691,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36910,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>345.2951542341712</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504663</v>
@@ -36931,10 +36931,10 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>257.2993485017925</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36995,7 +36995,7 @@
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799248</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
@@ -37147,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>345.2951542341712</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504663</v>
@@ -37168,10 +37168,10 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>257.2993485017925</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,7 +37390,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504663</v>
@@ -37402,13 +37402,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>598.8335596281419</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>189.4354616074382</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>609.7603912467498</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>537.6668875337</v>
+        <v>609.7603912467498</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
